--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail15 Features.xlsx
@@ -3056,7 +3056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3067,29 +3067,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3110,115 +3108,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3235,72 +3223,66 @@
         <v>1.670347485679528e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1298551961121505</v>
+        <v>9.17808015158182e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.09273918393023983</v>
+        <v>2.678543114091728e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.17808015158182e-07</v>
+        <v>0.03898400812981578</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.678543114091728e-06</v>
+        <v>0.3202866164024746</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03898400812981578</v>
+        <v>0.1039285467247189</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3202866164024746</v>
+        <v>1.629930141280249</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1039285467247189</v>
+        <v>1.38461008941267</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.561384445043626</v>
+        <v>4.589351444555398</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.38461008941267</v>
+        <v>7.363670755179441e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.589351444555398</v>
+        <v>26582969.6180012</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.363670755179441e-15</v>
+        <v>3.974493719401752e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>26582969.6180012</v>
+        <v>5.203569409352493</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.974493719401752e-06</v>
+        <v>0.0001682299324848657</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.203569409352493</v>
+        <v>8.997657935812672</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001682299324848657</v>
+        <v>1.365745879462957</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.997657935812672</v>
+        <v>0.01361953335865786</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.365745879462957</v>
+        <v>2.808718617027687</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01361953335865786</v>
+        <v>0.9460191345381884</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.808718617027687</v>
+        <v>1.877204393037122</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9460191345381884</v>
+        <v>82</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.877204393037122</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1569668377780512</v>
       </c>
     </row>
@@ -3315,72 +3297,66 @@
         <v>1.576902409202705e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5106671070202549</v>
+        <v>6.739881288819493e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8770627494411731</v>
+        <v>2.682758396499638e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.739881288819493e-07</v>
+        <v>0.01339086432284802</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.682758396499638e-06</v>
+        <v>0.2770946400607492</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01339086432284802</v>
+        <v>0.07683739591626741</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2770946400607492</v>
+        <v>1.633432857682687</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07683739591626741</v>
+        <v>1.364546262772758</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.568661953951045</v>
+        <v>5.279661765021988</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.364546262772758</v>
+        <v>5.498566713626659e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.279661765021988</v>
+        <v>36362435.7574659</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.498566713626659e-15</v>
+        <v>2.931415130757461e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>36362435.7574659</v>
+        <v>7.270351908626471</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.931415130757461e-06</v>
+        <v>0.0002049597732653959</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.270351908626471</v>
+        <v>12.96176666409854</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002049597732653959</v>
+        <v>0.9978342147180518</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.96176666409854</v>
+        <v>0.03443475759728753</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9978342147180518</v>
+        <v>2.247731545473738</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03443475759728753</v>
+        <v>0.9465520385703722</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.247731545473738</v>
+        <v>1.883331299753455</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9465520385703722</v>
+        <v>112</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.883331299753455</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1705485922093319</v>
       </c>
     </row>
@@ -3395,72 +3371,66 @@
         <v>1.571128199282574e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5347072153733854</v>
+        <v>5.678513029922329e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9121273683566895</v>
+        <v>2.683001971617829e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.678513029922329e-07</v>
+        <v>-0.009567384385408972</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.683001971617829e-06</v>
+        <v>0.226714728917942</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.009567384385408972</v>
+        <v>0.05140356323358277</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.226714728917942</v>
+        <v>1.769849973873162</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05140356323358277</v>
+        <v>1.662566758268255</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.724737478536849</v>
+        <v>3.680597360676499</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.662566758268255</v>
+        <v>4.70631176252302e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.680597360676499</v>
+        <v>39870176.90627465</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.70631176252302e-15</v>
+        <v>2.903055872267755e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>39870176.90627465</v>
+        <v>7.481299104139389</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.903055872267755e-06</v>
+        <v>0.0002656194631249844</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.481299104139389</v>
+        <v>12.08329508093373</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002656194631249844</v>
+        <v>1.273431881489539</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.08329508093373</v>
+        <v>0.03878204064884679</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.273431881489539</v>
+        <v>2.278699154564104</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03878204064884679</v>
+        <v>0.9538746531211982</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.278699154564104</v>
+        <v>1.693317098770002</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9538746531211982</v>
+        <v>123</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.693317098770002</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1619396670498439</v>
       </c>
     </row>
@@ -3475,72 +3445,66 @@
         <v>1.603069041560674e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4913087440314156</v>
+        <v>5.874308587089581e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9179302562733658</v>
+        <v>2.679871276922313e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.874308587089581e-07</v>
+        <v>-0.02923511314585935</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.679871276922313e-06</v>
+        <v>0.1725422190628627</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02923511314585935</v>
+        <v>0.03055843221987598</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1725422190628627</v>
+        <v>1.823007377323053</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03055843221987598</v>
+        <v>1.483978326900254</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.79385116573628</v>
+        <v>4.714616875582331</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.483978326900254</v>
+        <v>2.671061034521313e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.714616875582331</v>
+        <v>69962062.49454071</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.671061034521313e-15</v>
+        <v>1.700559069839035e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>69962062.49454071</v>
+        <v>13.07401623852947</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.700559069839035e-06</v>
+        <v>0.000301468479134376</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.07401623852947</v>
+        <v>10.76609633999672</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000301468479134376</v>
+        <v>1.583218626014882</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.76609633999672</v>
+        <v>0.03494285881956262</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.583218626014882</v>
+        <v>2.323785990374911</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03494285881956262</v>
+        <v>0.9554334288850671</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.323785990374911</v>
+        <v>1.644191867966452</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9554334288850671</v>
+        <v>157</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.644191867966452</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2302107439634306</v>
       </c>
     </row>
@@ -3555,72 +3519,66 @@
         <v>1.637792007406067e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4846466196979992</v>
+        <v>6.068695129400944e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.884408524831986</v>
+        <v>2.673769058133624e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.068695129400944e-07</v>
+        <v>-0.04499864566679388</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.673769058133624e-06</v>
+        <v>0.1223994043626628</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04499864566679388</v>
+        <v>0.01697327342790419</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1223994043626628</v>
+        <v>1.870497911700783</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01697327342790419</v>
+        <v>1.635577067644809</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.861882219941817</v>
+        <v>5.670912384779997</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.635577067644809</v>
+        <v>6.969741978657983e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.670912384779997</v>
+        <v>265309866.2683875</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.969741978657983e-16</v>
+        <v>4.516710439630434e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>265309866.2683875</v>
+        <v>49.05954342731312</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.516710439630434e-07</v>
+        <v>0.0002246408148266202</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>49.05954342731312</v>
+        <v>9.58170293506978</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002246408148266202</v>
+        <v>1.683282352742844</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.58170293506978</v>
+        <v>0.0206240555628167</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.683282352742844</v>
+        <v>2.918536065338757</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0206240555628167</v>
+        <v>0.9594881231987227</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.918536065338757</v>
+        <v>1.515518772218406</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9594881231987227</v>
+        <v>175</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.515518772218406</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5716129892740699</v>
       </c>
     </row>
@@ -3635,72 +3593,66 @@
         <v>1.657193116854598e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4920019829942689</v>
+        <v>6.261146556848055e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.777759205052408</v>
+        <v>2.665410013339507e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.261146556848055e-07</v>
+        <v>-0.05549763016261283</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.665410013339507e-06</v>
+        <v>0.09310550202641653</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05549763016261283</v>
+        <v>0.01173778982451518</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09310550202641653</v>
+        <v>1.903002862451066</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01173778982451518</v>
+        <v>1.930005850467354</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.919159685169635</v>
+        <v>6.060871368565664</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.930005850467354</v>
+        <v>1.566150918425583e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.060871368565664</v>
+        <v>1162250835.115787</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.566150918425583e-16</v>
+        <v>1.035972230427415e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1162250835.115787</v>
+        <v>211.5598952521657</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.035972230427415e-07</v>
+        <v>0.0001067337834910618</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>211.5598952521657</v>
+        <v>6.821694012139563</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001067337834910618</v>
+        <v>1.62446368172342</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.821694012139563</v>
+        <v>0.004966910963093277</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.62446368172342</v>
+        <v>3.882472908884636</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004966910963093277</v>
+        <v>0.960899100869967</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.882472908884636</v>
+        <v>1.302978290649181</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.960899100869967</v>
+        <v>181</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.302978290649181</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>181</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.515039231546514</v>
       </c>
     </row>
@@ -3715,72 +3667,66 @@
         <v>1.660238884495129e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4797306031416179</v>
+        <v>6.45054644407603e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6576242694614995</v>
+        <v>2.655599100260676e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.45054644407603e-07</v>
+        <v>-0.06222023394174724</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.655599100260676e-06</v>
+        <v>0.08090854470008502</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06222023394174724</v>
+        <v>0.01041442769816805</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08090854470008502</v>
+        <v>1.913873291798485</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01041442769816805</v>
+        <v>2.286561809653323</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.936564204139778</v>
+        <v>5.197120968258964</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.286561809653323</v>
+        <v>5.673591034789919e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.197120968258964</v>
+        <v>3086810807.939373</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.673591034789919e-17</v>
+        <v>3.910910965682561e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3086810807.939373</v>
+        <v>540.6025028529828</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.910910965682561e-08</v>
+        <v>0.0001019930707681203</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>540.6025028529828</v>
+        <v>7.556013980765504</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001019930707681203</v>
+        <v>1.5109789691764</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.556013980765504</v>
+        <v>0.005823125809265351</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.5109789691764</v>
+        <v>3.994510865925012</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005823125809265351</v>
+        <v>0.9603953273831447</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.994510865925012</v>
+        <v>1.154450872013935</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9603953273831447</v>
+        <v>183</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.154450872013935</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.165755283070318</v>
       </c>
     </row>
@@ -3795,72 +3741,66 @@
         <v>1.651743150182784e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4361139064276511</v>
+        <v>6.635619868109924e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5676189520195676</v>
+        <v>2.644893199980566e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.635619868109924e-07</v>
+        <v>-0.0666591752848593</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.644893199980566e-06</v>
+        <v>0.07718137690502462</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0666591752848593</v>
+        <v>0.01039993068570606</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07718137690502462</v>
+        <v>1.913676888116332</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01039993068570606</v>
+        <v>2.636111311181027</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.940716851693262</v>
+        <v>4.728483765464031</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.636111311181027</v>
+        <v>3.930090318130248e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.728483765464031</v>
+        <v>4378405420.135284</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.930090318130248e-17</v>
+        <v>2.753382785006827e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4378405420.135284</v>
+        <v>753.4153714842224</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.753382785006827e-08</v>
+        <v>0.0001002707735836649</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>753.4153714842224</v>
+        <v>7.407407211180244</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001002707735836649</v>
+        <v>1.322030836150978</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.407407211180244</v>
+        <v>0.005501825419543791</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.322030836150978</v>
+        <v>4.106711059018608</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.005501825419543791</v>
+        <v>0.9598356834094036</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.106711059018608</v>
+        <v>1.11478666900635</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9598356834094036</v>
+        <v>183</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.11478666900635</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.367526511008871</v>
       </c>
     </row>
@@ -3875,72 +3815,66 @@
         <v>1.637702117767557e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3632661675633073</v>
+        <v>6.800788250858381e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5174195477224823</v>
+        <v>2.63369596159447e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.800788250858381e-07</v>
+        <v>-0.06921109487178657</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.63369596159447e-06</v>
+        <v>0.07727987223436214</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06921109487178657</v>
+        <v>0.01076213873959147</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07727987223436214</v>
+        <v>1.914544452377681</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01076213873959147</v>
+        <v>2.965280567534137</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.939009328478146</v>
+        <v>5.068866060643971</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.965280567534137</v>
+        <v>3.939815073914503e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.068866060643971</v>
+        <v>4231326080.629182</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.939815073914503e-17</v>
+        <v>2.835108435976404e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4231326080.629182</v>
+        <v>705.3892343951416</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.835108435976404e-08</v>
+        <v>0.0001108172739950122</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>705.3892343951416</v>
+        <v>9.268174276907384</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001108172739950122</v>
+        <v>1.238515807197532</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.268174276907384</v>
+        <v>0.009519099050363475</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.238515807197532</v>
+        <v>4.232118273025517</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009519099050363475</v>
+        <v>0.9599542266265583</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.232118273025517</v>
+        <v>1.100328239778706</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9599542266265583</v>
+        <v>183</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.100328239778706</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.033397949801736</v>
       </c>
     </row>
@@ -3955,72 +3889,66 @@
         <v>1.623412275360449e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2704414584098087</v>
+        <v>6.858642803211636e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4958121759568166</v>
+        <v>2.622298888976031e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.858642803211636e-07</v>
+        <v>-0.07041757050339627</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.622298888976031e-06</v>
+        <v>0.07806243572259872</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.07041757050339627</v>
+        <v>0.01105174698000376</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07806243572259872</v>
+        <v>1.916281190413798</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01105174698000376</v>
+        <v>2.671794730676776</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.938643516208613</v>
+        <v>4.735370262890024</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.671794730676776</v>
+        <v>4.514291337894291e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.735370262890024</v>
+        <v>3658485736.162993</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.514291337894291e-17</v>
+        <v>3.286783403371333e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3658485736.162993</v>
+        <v>604.2161313528602</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.286783403371333e-08</v>
+        <v>0.0001245209163137176</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>604.2161313528602</v>
+        <v>12.75099865472498</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001245209163137176</v>
+        <v>1.039012118609254</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.75099865472498</v>
+        <v>0.02024560259417145</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.039012118609254</v>
+        <v>4.462529774791047</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02024560259417145</v>
+        <v>0.9597295083769044</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.462529774791047</v>
+        <v>1.058423418455259</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9597295083769044</v>
+        <v>160</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.058423418455259</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>4.596376280710122</v>
       </c>
     </row>
@@ -4035,72 +3963,66 @@
         <v>1.612097350535497e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.167730242933352</v>
+        <v>6.838029658949417e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4895436380131222</v>
+        <v>2.610877243920222e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.838029658949417e-07</v>
+        <v>-0.07070023649532926</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.610877243920222e-06</v>
+        <v>0.07850788555476851</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07070023649532926</v>
+        <v>0.01116102642187765</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07850788555476851</v>
+        <v>1.924719365383554</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01116102642187765</v>
+        <v>2.930022198472216</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.950606243108918</v>
+        <v>4.643116639316689</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.930022198472216</v>
+        <v>5.032640045039932e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.643116639316689</v>
+        <v>3484135781.743319</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.032640045039932e-17</v>
+        <v>3.433480893599382e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3484135781.743319</v>
+        <v>610.9223483290264</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.433480893599382e-08</v>
+        <v>0.0001359950970538637</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>610.9223483290264</v>
+        <v>13.34805536229482</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001359950970538637</v>
+        <v>1.061465414034031</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.34805536229482</v>
+        <v>0.02423032558509832</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.061465414034031</v>
+        <v>4.757426468367539</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02423032558509832</v>
+        <v>0.9594235297244741</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.757426468367539</v>
+        <v>1.058685063220948</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9594235297244741</v>
+        <v>162</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.058685063220948</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.705273523464408</v>
       </c>
     </row>
@@ -4115,72 +4037,66 @@
         <v>1.605294600581253e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.06362759514661182</v>
+        <v>6.778284787562118e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.4904473689306927</v>
+        <v>2.599526726891899e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.778284787562118e-07</v>
+        <v>-0.07037986590709704</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.599526726891899e-06</v>
+        <v>0.07850482964974477</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.07037986590709704</v>
+        <v>0.01111523822593246</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07850482964974477</v>
+        <v>1.913207425873988</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01111523822593246</v>
+        <v>2.452042299104884</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.942730107681288</v>
+        <v>4.887551195895335</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.452042299104884</v>
+        <v>4.560853267719124e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.887551195895335</v>
+        <v>3801237520.358058</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.560853267719124e-17</v>
+        <v>3.167544564140695e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>3801237520.358058</v>
+        <v>659.0162370125695</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.167544564140695e-08</v>
+        <v>0.0001105968603830714</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>659.0162370125695</v>
+        <v>12.39462281098625</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001105968603830714</v>
+        <v>1.159852446358368</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.39462281098625</v>
+        <v>0.01699062788479591</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.159852446358368</v>
+        <v>5.419768870973098</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01699062788479591</v>
+        <v>0.96027429001789</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.419768870973098</v>
+        <v>0.9099357649382164</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.96027429001789</v>
+        <v>159</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9099357649382164</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>7.197024238445591</v>
       </c>
     </row>
@@ -4195,72 +4111,66 @@
         <v>1.603321938577319e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.03558546305402736</v>
+        <v>6.697917512047924e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4961576775070982</v>
+        <v>2.588294131497483e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.697917512047924e-07</v>
+        <v>-0.06963046090950831</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.588294131497483e-06</v>
+        <v>0.07816043052831402</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06963046090950831</v>
+        <v>0.01095645681516639</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07816043052831402</v>
+        <v>1.91427180424361</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01095645681516639</v>
+        <v>2.343960717779976</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.944533048750146</v>
+        <v>5.769517589894878</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.343960717779976</v>
+        <v>3.820326452899216e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.769517589894878</v>
+        <v>4592048399.780306</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.820326452899216e-17</v>
+        <v>2.62450386216622e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4592048399.780306</v>
+        <v>805.5887437505024</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.62450386216622e-08</v>
+        <v>6.647579403220933e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>805.5887437505024</v>
+        <v>12.90286467288776</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>6.647579403220933e-05</v>
+        <v>1.037865972049593</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.90286467288776</v>
+        <v>0.01106715056066894</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.037865972049593</v>
+        <v>6.266420289930016</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01106715056066894</v>
+        <v>0.9616239647170828</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>6.266420289930016</v>
+        <v>0.9270534223494938</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9616239647170828</v>
+        <v>159</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9270534223494938</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>9.587940077867684</v>
       </c>
     </row>
@@ -4275,72 +4185,66 @@
         <v>1.605622275905122e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1251273093979643</v>
+        <v>6.600646999419911e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.5083730662630064</v>
+        <v>2.577209652341588e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.600646999419911e-07</v>
+        <v>-0.06851980978680001</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.577209652341588e-06</v>
+        <v>0.07760381048835656</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06851980978680001</v>
+        <v>0.01071653618411237</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07760381048835656</v>
+        <v>1.917557717919568</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01071653618411237</v>
+        <v>2.253655901776935</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.94482428857111</v>
+        <v>6.105240032632556</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.253655901776935</v>
+        <v>5.590226035180193e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.105240032632556</v>
+        <v>3182832701.23841</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.590226035180193e-17</v>
+        <v>3.784633705763844e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>3182832701.23841</v>
+        <v>566.3136001498096</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.784633705763844e-08</v>
+        <v>7.089549374541401e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>566.3136001498096</v>
+        <v>13.65919216287716</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>7.089549374541401e-05</v>
+        <v>1.13937050883435</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.65919216287716</v>
+        <v>0.01322722256762887</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.13937050883435</v>
+        <v>6.317100279830125</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01322722256762887</v>
+        <v>0.9615905319145279</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>6.317100279830125</v>
+        <v>0.9261787856808716</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9615905319145279</v>
+        <v>159</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9261787856808716</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>9.537010323959819</v>
       </c>
     </row>
@@ -4355,72 +4259,66 @@
         <v>1.611039623921485e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2014230494776503</v>
+        <v>6.482635184666972e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5306396722375961</v>
+        <v>2.566303410359107e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.482635184666972e-07</v>
+        <v>-0.06706682437794256</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.566303410359107e-06</v>
+        <v>0.07698324784909638</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06706682437794256</v>
+        <v>0.0104238457426675</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07698324784909638</v>
+        <v>1.920072927872588</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0104238457426675</v>
+        <v>2.161540741178433</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.943821977070168</v>
+        <v>5.385892102351027</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.161540741178433</v>
+        <v>1.054619212217709e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.385892102351027</v>
+        <v>1687004575.240013</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.054619212217709e-16</v>
+        <v>7.169572582358793e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1687004575.240013</v>
+        <v>300.1429864807023</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.169572582358793e-08</v>
+        <v>0.0001530441146555423</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>300.1429864807023</v>
+        <v>12.98190762900705</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001530441146555423</v>
+        <v>1.265116294301506</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.98190762900705</v>
+        <v>0.02579251326989523</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.265116294301506</v>
+        <v>4.631435826748755</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02579251326989523</v>
+        <v>0.9619979698794106</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.631435826748755</v>
+        <v>0.9878482389187475</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9619979698794106</v>
+        <v>147</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9878482389187475</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>4.895113927615889</v>
       </c>
     </row>
@@ -4435,72 +4333,66 @@
         <v>1.61800069058788e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.261756925378673</v>
+        <v>6.332232127995814e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.566529563405803</v>
+        <v>2.555618917227026e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.332232127995814e-07</v>
+        <v>-0.06522670195332457</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.555618917227026e-06</v>
+        <v>0.07650491044129498</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06522670195332457</v>
+        <v>0.01010718939510892</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07650491044129498</v>
+        <v>1.917566585633263</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01010718939510892</v>
+        <v>1.993802741069145</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.937558202917484</v>
+        <v>5.037294049313617</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.993802741069145</v>
+        <v>2.105192062242501e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.037294049313617</v>
+        <v>823315014.0423725</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.105192062242501e-16</v>
+        <v>1.4684492761352e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>823315014.0423725</v>
+        <v>142.6999412924183</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.4684492761352e-07</v>
+        <v>0.0002088446972209107</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>142.6999412924183</v>
+        <v>12.29618015763275</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002088446972209107</v>
+        <v>1.220435812879026</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.29618015763275</v>
+        <v>0.03157649254580898</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.220435812879026</v>
+        <v>3.282271598391532</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03157649254580898</v>
+        <v>0.9613379651318155</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.282271598391532</v>
+        <v>1.093904685269624</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9613379651318155</v>
+        <v>108</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.093904685269624</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.940762249776569</v>
       </c>
     </row>
@@ -4877,7 +4769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.820357810056253</v>
+        <v>1.820963392116576</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.771564279515303</v>
@@ -4966,7 +4858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.83650085951267</v>
+        <v>1.836393759049323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.986491955854141</v>
@@ -5055,7 +4947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.849305098679989</v>
+        <v>1.84806819954219</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.877174800717533</v>
@@ -5144,7 +5036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.888712564541115</v>
+        <v>1.877799875738325</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.025671114847929</v>
@@ -5233,7 +5125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.900632951250529</v>
+        <v>1.889348790500015</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.093256126492729</v>
@@ -5322,7 +5214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.906096194572744</v>
+        <v>1.897001208144739</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.967884204194378</v>
@@ -5411,7 +5303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.909519683607029</v>
+        <v>1.900983463834931</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.16017501709893</v>
@@ -5500,7 +5392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.912487606532499</v>
+        <v>1.902099567633553</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.935701080442572</v>
@@ -5589,7 +5481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.910664560535454</v>
+        <v>1.89848798968301</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.971229483645017</v>
@@ -5678,7 +5570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.86152573632796</v>
+        <v>1.858077239400708</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.856403372353017</v>
@@ -5767,7 +5659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.858208694132658</v>
+        <v>1.850529868730675</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.929611421545532</v>
@@ -5856,7 +5748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.851661331075771</v>
+        <v>1.84123988917326</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.729738185537663</v>
@@ -5945,7 +5837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.845270773951093</v>
+        <v>1.833316748961674</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.771614590706338</v>
@@ -6034,7 +5926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.814250346128976</v>
+        <v>1.799748306278447</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.525976534478463</v>
@@ -6123,7 +6015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.774303755013071</v>
+        <v>1.765958503850158</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.589149739146663</v>
@@ -6212,7 +6104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.756312995762325</v>
+        <v>1.745411666932701</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.542410357232565</v>
@@ -6301,7 +6193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.753315688782325</v>
+        <v>1.744479059318477</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.637798634982748</v>
@@ -6390,7 +6282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.806754078632489</v>
+        <v>1.793243483784636</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.537024143824514</v>
@@ -6479,7 +6371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.764297140139851</v>
+        <v>1.757411041210934</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.633254517533478</v>
@@ -6568,7 +6460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.749886701914744</v>
+        <v>1.751551448617599</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.658205190454231</v>
@@ -6657,7 +6549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.748395950877504</v>
+        <v>1.748613418470276</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.605670252747798</v>
@@ -6746,7 +6638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.751855625373766</v>
+        <v>1.753924521826763</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.654671524932206</v>
@@ -6835,7 +6727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.748791301847777</v>
+        <v>1.754347147101668</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.63964690793223</v>
@@ -6924,7 +6816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.756168536074534</v>
+        <v>1.766095338671273</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.660165639719919</v>
@@ -7013,7 +6905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.80288349278946</v>
+        <v>1.806437071440026</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.734465532708707</v>
@@ -7102,7 +6994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.802111073758693</v>
+        <v>1.803811287799351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.740177718382386</v>
@@ -7191,7 +7083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.803190035483945</v>
+        <v>1.807990481113479</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.776947761637507</v>
@@ -7280,7 +7172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.801444178098816</v>
+        <v>1.808238708367085</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.722210850467581</v>
@@ -7369,7 +7261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.813932987829259</v>
+        <v>1.820072802012948</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.65406452934852</v>
@@ -7458,7 +7350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.797664145010663</v>
+        <v>1.800632366430257</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.690253651330448</v>
@@ -7547,7 +7439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778080356498641</v>
+        <v>1.792085059991695</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.693375540032633</v>
@@ -7636,7 +7528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.77093746331594</v>
+        <v>1.780537653365303</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.734184840906796</v>
@@ -7725,7 +7617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.759766197921045</v>
+        <v>1.764680428614589</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.658628904816758</v>
@@ -7814,7 +7706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.773091983373851</v>
+        <v>1.775587608225355</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.473932187996694</v>
@@ -7903,7 +7795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.764512087322358</v>
+        <v>1.765995417880286</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.817127989108882</v>
@@ -7992,7 +7884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.760082112429804</v>
+        <v>1.763850608992177</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.715350255251395</v>
@@ -8081,7 +7973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.747957911574458</v>
+        <v>1.748226594026334</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.578912907295884</v>
@@ -8170,7 +8062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.739461282772321</v>
+        <v>1.734345920497959</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.680630300865146</v>
@@ -8259,7 +8151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.730294135428166</v>
+        <v>1.723857944459268</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.566192003897627</v>
@@ -8348,7 +8240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720256463983538</v>
+        <v>1.71708479880887</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.568419009710517</v>
@@ -8437,7 +8329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.719757362319688</v>
+        <v>1.720609712286984</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.500271295081377</v>
@@ -8526,7 +8418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.713976204842773</v>
+        <v>1.708134234197333</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.575757307392684</v>
@@ -8615,7 +8507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6622968911311</v>
+        <v>1.658541583203544</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.403069912153023</v>
@@ -8704,7 +8596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.68643897742381</v>
+        <v>1.677795622655575</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.325175821154075</v>
@@ -8793,7 +8685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.729303607805377</v>
+        <v>1.712319988204969</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.262552347900916</v>
@@ -8882,7 +8774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.724892096224403</v>
+        <v>1.705802079084444</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.40435648622949</v>
@@ -8971,7 +8863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.724419446049576</v>
+        <v>1.706954018409189</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.440273069128086</v>
@@ -9060,7 +8952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.728243108725314</v>
+        <v>1.705503741786072</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.424043718877157</v>
@@ -9149,7 +9041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.781551304033878</v>
+        <v>1.749068180612639</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.376278217170777</v>
@@ -9238,7 +9130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.80781995986034</v>
+        <v>1.780460206579354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.44583482735413</v>
@@ -9327,7 +9219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.796270840319842</v>
+        <v>1.770477805836565</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.461716453623048</v>
@@ -9416,7 +9308,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.774869351675852</v>
+        <v>1.761749634792603</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.498375018802908</v>
@@ -9505,7 +9397,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.784690969253539</v>
+        <v>1.774964102724522</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.556518530038918</v>
@@ -9594,7 +9486,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.791935576702475</v>
+        <v>1.777173456400058</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.655151202112492</v>
@@ -9683,7 +9575,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.790095688083313</v>
+        <v>1.771840726568992</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.553299545345348</v>
@@ -9772,7 +9664,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.793480421247744</v>
+        <v>1.779173791044842</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.576997211135014</v>
@@ -9861,7 +9753,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.797878033054306</v>
+        <v>1.787976425199337</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.613591974041851</v>
@@ -9950,7 +9842,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.858385848798912</v>
+        <v>1.83753750772495</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.851491488598376</v>
@@ -10039,7 +9931,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.862073447768267</v>
+        <v>1.845345813017653</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.748707024159827</v>
@@ -10128,7 +10020,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.865086479636323</v>
+        <v>1.852297397969231</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.864186368089976</v>
@@ -10217,7 +10109,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.864150781587692</v>
+        <v>1.855305415859524</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.91836404517778</v>
@@ -10503,7 +10395,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800465490391232</v>
+        <v>1.776793736960757</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.197823981291465</v>
@@ -10592,7 +10484,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.795871233203455</v>
+        <v>1.777126731563941</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.084144606803032</v>
@@ -10681,7 +10573,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.804584336032008</v>
+        <v>1.791285127130763</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.133265447773602</v>
@@ -10770,7 +10662,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.787397553212587</v>
+        <v>1.766423815256281</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.346340622994862</v>
@@ -10859,7 +10751,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.775680052904427</v>
+        <v>1.752942448829707</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.634693159273404</v>
@@ -10948,7 +10840,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.776989845068927</v>
+        <v>1.755894402190566</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.318685380474212</v>
@@ -11037,7 +10929,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.786593182187205</v>
+        <v>1.767078438078187</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.593777009333605</v>
@@ -11126,7 +11018,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.787562843599092</v>
+        <v>1.771925325771917</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.605775619944902</v>
@@ -11215,7 +11107,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.78069573191874</v>
+        <v>1.759419633063795</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.495862404854741</v>
@@ -11304,7 +11196,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.758689526135019</v>
+        <v>1.743787761712013</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.31322147222396</v>
@@ -11393,7 +11285,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.77501998825055</v>
+        <v>1.753473822527693</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.228332424981706</v>
@@ -11482,7 +11374,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.767483742681135</v>
+        <v>1.746639143063925</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.309610710922892</v>
@@ -11571,7 +11463,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.76916376025282</v>
+        <v>1.744259136436933</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.289460881559411</v>
@@ -11660,7 +11552,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.751256416906742</v>
+        <v>1.728364330437204</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.352189858428803</v>
@@ -11749,7 +11641,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.739858756258026</v>
+        <v>1.72391476682303</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.13700589578136</v>
@@ -11838,7 +11730,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.74350031795813</v>
+        <v>1.725313357525054</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.020469814893473</v>
@@ -11927,7 +11819,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.75434544573909</v>
+        <v>1.725785950103453</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.308253800168584</v>
@@ -12016,7 +11908,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.763389003967508</v>
+        <v>1.731472896375299</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.116034987205719</v>
@@ -12105,7 +11997,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.75420651794654</v>
+        <v>1.719405660391576</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.312657557478893</v>
@@ -12194,7 +12086,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.754731161428936</v>
+        <v>1.721735032857128</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.232318244325802</v>
@@ -12283,7 +12175,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.756316427368772</v>
+        <v>1.718557106614386</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.326537384183344</v>
@@ -12372,7 +12264,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741183105536247</v>
+        <v>1.699199074662463</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.407338737824806</v>
@@ -12461,7 +12353,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.731697054493933</v>
+        <v>1.680008927011305</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.156899549746042</v>
@@ -12550,7 +12442,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.733607046330583</v>
+        <v>1.684063674045882</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.515244583370913</v>
@@ -12639,7 +12531,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.746910200314164</v>
+        <v>1.683523055151764</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.214217618615729</v>
@@ -12728,7 +12620,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.753588635610532</v>
+        <v>1.68958978635081</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.212299856084227</v>
@@ -12817,7 +12709,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.750245958527292</v>
+        <v>1.687077569572635</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.232747570804956</v>
@@ -12906,7 +12798,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.74636942825918</v>
+        <v>1.688692815397219</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.43812468788489</v>
@@ -12995,7 +12887,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.758010916170518</v>
+        <v>1.699846894247862</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.461978386986308</v>
@@ -13084,7 +12976,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.752406676076167</v>
+        <v>1.692435671707751</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.30665475056515</v>
@@ -13173,7 +13065,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.755590973746756</v>
+        <v>1.709971813789773</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.960093616452552</v>
@@ -13262,7 +13154,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.766725732018021</v>
+        <v>1.726185535631986</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.831032716816912</v>
@@ -13351,7 +13243,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.7660572316312</v>
+        <v>1.72910006935058</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.019361632531078</v>
@@ -13440,7 +13332,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.783827373731272</v>
+        <v>1.743232436369626</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.967500793781622</v>
@@ -13529,7 +13421,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.78032116391948</v>
+        <v>1.741270247650648</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.720453554764648</v>
@@ -13618,7 +13510,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.78830622782657</v>
+        <v>1.750582309710701</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.892782341924505</v>
@@ -13707,7 +13599,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.797590278703274</v>
+        <v>1.764547154383072</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.837447160148318</v>
@@ -13796,7 +13688,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.808798269033771</v>
+        <v>1.781144411629739</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.724182561854714</v>
@@ -13885,7 +13777,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.808657370125543</v>
+        <v>1.783262393128739</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.068510595176028</v>
@@ -13974,7 +13866,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.81210652159481</v>
+        <v>1.79569764787175</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.778472781336373</v>
@@ -14063,7 +13955,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.814028526199626</v>
+        <v>1.78995934346609</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.058297290414191</v>
@@ -14152,7 +14044,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819509428211598</v>
+        <v>1.790606862439449</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.742791766576061</v>
@@ -14241,7 +14133,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.802737431602094</v>
+        <v>1.774219133563447</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.899581142239632</v>
@@ -14330,7 +14222,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.805028818799215</v>
+        <v>1.773850053197678</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.750859407786818</v>
@@ -14419,7 +14311,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.8122547023465</v>
+        <v>1.777057261364373</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.939255085479701</v>
@@ -14508,7 +14400,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.802690565193861</v>
+        <v>1.755825242843271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.358613972722615</v>
@@ -14597,7 +14489,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.796155131119904</v>
+        <v>1.743798229485547</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.540473133473935</v>
@@ -14686,7 +14578,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.789285925750245</v>
+        <v>1.72673757757838</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.879739513006214</v>
@@ -14775,7 +14667,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.770105986816038</v>
+        <v>1.706101218616575</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.273503711475001</v>
@@ -14864,7 +14756,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.77137255230553</v>
+        <v>1.710360017592381</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.596480858945492</v>
@@ -14953,7 +14845,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.759631260840945</v>
+        <v>1.698394708041087</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.504693900638576</v>
@@ -15042,7 +14934,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.757661690242508</v>
+        <v>1.693395004724404</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.934033365798781</v>
@@ -15131,7 +15023,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.751352628558198</v>
+        <v>1.686507581533157</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.659176411504278</v>
@@ -15220,7 +15112,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.75761991631111</v>
+        <v>1.683717986988113</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.311179576420863</v>
@@ -15309,7 +15201,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.748329874861469</v>
+        <v>1.678582027248354</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.847771869473509</v>
@@ -15398,7 +15290,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.743456564531154</v>
+        <v>1.676366657555776</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.59817735132446</v>
@@ -15487,7 +15379,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.741992421152539</v>
+        <v>1.677551817753659</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.855265862973508</v>
@@ -15576,7 +15468,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.761102900424244</v>
+        <v>1.694068306039112</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.944218157485756</v>
@@ -15665,7 +15557,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.767753516414006</v>
+        <v>1.700774903430102</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.538284498108961</v>
@@ -15754,7 +15646,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.770921201332883</v>
+        <v>1.706301064237171</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.356158939190132</v>
@@ -15843,7 +15735,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.768746408483332</v>
+        <v>1.709177941867547</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.576250485475982</v>
@@ -16129,7 +16021,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.902480487123032</v>
+        <v>1.883535867996007</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.244833728887407</v>
@@ -16218,7 +16110,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.907281000125638</v>
+        <v>1.886719787802858</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.203602026504901</v>
@@ -16307,7 +16199,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.906732215195541</v>
+        <v>1.883738697372196</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.274275477266985</v>
@@ -16396,7 +16288,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.905487941832552</v>
+        <v>1.878519371469632</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.010414877932408</v>
@@ -16485,7 +16377,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.913050773062745</v>
+        <v>1.892814573571062</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.792852483644792</v>
@@ -16574,7 +16466,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.917418498231823</v>
+        <v>1.899309585605313</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.051406226202527</v>
@@ -16663,7 +16555,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.918972150873183</v>
+        <v>1.90318403266592</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.320244693550046</v>
@@ -16752,7 +16644,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.921628240598994</v>
+        <v>1.90781429259023</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.82269382036489</v>
@@ -16841,7 +16733,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.914838524705694</v>
+        <v>1.898225396240379</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.709959530095189</v>
@@ -16930,7 +16822,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.898281230661905</v>
+        <v>1.881663758510382</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.813749121415501</v>
@@ -17019,7 +16911,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.898992822205356</v>
+        <v>1.876554121095718</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.939926572659538</v>
@@ -17108,7 +17000,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.891402579463794</v>
+        <v>1.864808911742385</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.946710661384548</v>
@@ -17197,7 +17089,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.882136164938968</v>
+        <v>1.851220580443323</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.642087737893216</v>
@@ -17286,7 +17178,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.863017906554873</v>
+        <v>1.831714046027688</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.829529679890983</v>
@@ -17375,7 +17267,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.847320253342748</v>
+        <v>1.813536382098317</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.191711938721626</v>
@@ -17464,7 +17356,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.831167353603856</v>
+        <v>1.785566377585562</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.555990424120843</v>
@@ -17553,7 +17445,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.834207182630474</v>
+        <v>1.792889681146842</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.340501427746901</v>
@@ -17642,7 +17534,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.849981053933341</v>
+        <v>1.809039144823161</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.849584665046391</v>
@@ -17731,7 +17623,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.840722849867154</v>
+        <v>1.798955150292348</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.207407465738346</v>
@@ -17820,7 +17712,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.846587374717848</v>
+        <v>1.806177956433744</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.648160225053263</v>
@@ -17909,7 +17801,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.846388347552456</v>
+        <v>1.80796479073176</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.359576703818136</v>
@@ -17998,7 +17890,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.843263867349005</v>
+        <v>1.80358653174766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.12540786426326</v>
@@ -18087,7 +17979,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.840145720938551</v>
+        <v>1.797741688333663</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.738826407959427</v>
@@ -18176,7 +18068,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.845697767117914</v>
+        <v>1.801066612019045</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.378224803977021</v>
@@ -18265,7 +18157,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.860323256732705</v>
+        <v>1.811441800464444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.495200208545942</v>
@@ -18354,7 +18246,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.863717791524613</v>
+        <v>1.813627148137997</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.990617736051038</v>
@@ -18443,7 +18335,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.866981350782682</v>
+        <v>1.823165677882748</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.341177548318263</v>
@@ -18532,7 +18424,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.866365622893776</v>
+        <v>1.826233239255681</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.931080866224448</v>
@@ -18621,7 +18513,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.872649460681419</v>
+        <v>1.830709172557313</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.038429773684004</v>
@@ -18710,7 +18602,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.865503525204916</v>
+        <v>1.825808895089591</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.772816082277491</v>
@@ -18799,7 +18691,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.869217837402341</v>
+        <v>1.834165158906626</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.409719200818675</v>
@@ -18888,7 +18780,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.868832217685834</v>
+        <v>1.826290956795291</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.81308755637845</v>
@@ -18977,7 +18869,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.865824729629833</v>
+        <v>1.825400275041559</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.805950732220678</v>
@@ -19066,7 +18958,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.88149496841208</v>
+        <v>1.840304145314952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.125060948564404</v>
@@ -19155,7 +19047,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.864520419493246</v>
+        <v>1.818993035485554</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.887513716898064</v>
@@ -19244,7 +19136,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.859520873758034</v>
+        <v>1.809579893604818</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.364773595548799</v>
@@ -19333,7 +19225,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.851475119237539</v>
+        <v>1.799810852874842</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.060920861196322</v>
@@ -19422,7 +19314,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.855010913665461</v>
+        <v>1.8007280430413</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.886362867262693</v>
@@ -19511,7 +19403,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.852437229313725</v>
+        <v>1.801849593534515</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.833692150084089</v>
@@ -19600,7 +19492,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.851034708705026</v>
+        <v>1.801663182675452</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.122299844043996</v>
@@ -19689,7 +19581,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.847176032567262</v>
+        <v>1.795742342140075</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.832380672586924</v>
@@ -19778,7 +19670,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.842088294186932</v>
+        <v>1.788678599156148</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.852930256391744</v>
@@ -19867,7 +19759,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.822906524759182</v>
+        <v>1.771935153438132</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.499338493406562</v>
@@ -19956,7 +19848,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.829659964703192</v>
+        <v>1.777578943203405</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.922940149228114</v>
@@ -20045,7 +19937,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.838352410398062</v>
+        <v>1.77971502937021</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.033986105595301</v>
@@ -20134,7 +20026,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.831843737151563</v>
+        <v>1.774985215515846</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.076233845773555</v>
@@ -20223,7 +20115,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.832241096397081</v>
+        <v>1.776797010636685</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.728962423445917</v>
@@ -20312,7 +20204,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.830550655589765</v>
+        <v>1.767922011663565</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.759490631527241</v>
@@ -20401,7 +20293,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.816117799358604</v>
+        <v>1.756050936312105</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.079719449032745</v>
@@ -20490,7 +20382,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.829766079278975</v>
+        <v>1.771217426835689</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.297324333289095</v>
@@ -20579,7 +20471,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.834060276592325</v>
+        <v>1.780776026968517</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.095618153517426</v>
@@ -20668,7 +20560,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.838094930207388</v>
+        <v>1.78568992774329</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.662633153925849</v>
@@ -20757,7 +20649,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.838189129490956</v>
+        <v>1.786165115504043</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.920547829343789</v>
@@ -20846,7 +20738,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.841641018266171</v>
+        <v>1.786657569025061</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.636873979704431</v>
@@ -20935,7 +20827,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.83823305558333</v>
+        <v>1.790345969016436</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.260242990919104</v>
@@ -21024,7 +20916,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.839956907492416</v>
+        <v>1.798079978944532</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.082559441338091</v>
@@ -21113,7 +21005,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.840347535555707</v>
+        <v>1.79786757800886</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.911511969397585</v>
@@ -21202,7 +21094,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.859876863800759</v>
+        <v>1.812714689329016</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.377198818694007</v>
@@ -21291,7 +21183,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.860715818448045</v>
+        <v>1.817697449235944</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.148308427584946</v>
@@ -21380,7 +21272,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.870737085650679</v>
+        <v>1.832340880966462</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.125896238069724</v>
@@ -21469,7 +21361,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.867695137268552</v>
+        <v>1.833969431507818</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.066312554889605</v>
@@ -21755,7 +21647,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.826356149388415</v>
+        <v>1.80291339791858</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.829707161210371</v>
@@ -21844,7 +21736,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.828676968366011</v>
+        <v>1.80663170371236</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.147585455375475</v>
@@ -21933,7 +21825,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.874521323550074</v>
+        <v>1.847785120369634</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.80903994924576</v>
@@ -22022,7 +21914,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.884605462749113</v>
+        <v>1.856468102262706</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.394393455512135</v>
@@ -22111,7 +22003,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.8885161659079</v>
+        <v>1.855855914686465</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.849098176808544</v>
@@ -22200,7 +22092,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.897197540353597</v>
+        <v>1.865977432949681</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.127710951261228</v>
@@ -22289,7 +22181,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.906237864026577</v>
+        <v>1.883899028661072</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.60318813604772</v>
@@ -22378,7 +22270,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.908527374302482</v>
+        <v>1.886321138588536</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.937675694847064</v>
@@ -22467,7 +22359,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.911136643586886</v>
+        <v>1.889223992894085</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.16483481884626</v>
@@ -22556,7 +22448,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.896799059889049</v>
+        <v>1.881065473044785</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.642085786835326</v>
@@ -22645,7 +22537,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.899576687984102</v>
+        <v>1.8750308060882</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.051786959937669</v>
@@ -22734,7 +22626,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.89298510586031</v>
+        <v>1.871359967174331</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.970423350835024</v>
@@ -22823,7 +22715,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.887731631224834</v>
+        <v>1.866122570275529</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.290466956975517</v>
@@ -22912,7 +22804,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.871344106072912</v>
+        <v>1.845704259653324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.945831850881912</v>
@@ -23001,7 +22893,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.851807936213381</v>
+        <v>1.825801271911899</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.127031837801088</v>
@@ -23090,7 +22982,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.841290630591333</v>
+        <v>1.811003858941306</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.205590684455944</v>
@@ -23179,7 +23071,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.848253370506928</v>
+        <v>1.812834958589231</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.085069750656809</v>
@@ -23268,7 +23160,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.86207059661491</v>
+        <v>1.823348289220027</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.975642292562322</v>
@@ -23357,7 +23249,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.865931315011196</v>
+        <v>1.819829330519839</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.986940392186525</v>
@@ -23446,7 +23338,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.866011779552229</v>
+        <v>1.82471975980638</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.934433624843747</v>
@@ -23535,7 +23427,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.866853179874318</v>
+        <v>1.82056247135343</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.258211748010754</v>
@@ -23624,7 +23516,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.859346601454231</v>
+        <v>1.805476723180443</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.819026866026134</v>
@@ -23713,7 +23605,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.858436020758466</v>
+        <v>1.803567943846525</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.99886410095753</v>
@@ -23802,7 +23694,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.855611599089264</v>
+        <v>1.808007363948575</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.971621660462401</v>
@@ -23891,7 +23783,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.870755979339286</v>
+        <v>1.821638518425607</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.124020953335497</v>
@@ -23980,7 +23872,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.871830078486314</v>
+        <v>1.82316671280605</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.332436700640948</v>
@@ -24069,7 +23961,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.863244786508622</v>
+        <v>1.817552317253256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.901378131171105</v>
@@ -24158,7 +24050,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.866578567249281</v>
+        <v>1.818283241813885</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.031183519812013</v>
@@ -24247,7 +24139,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.879224723050789</v>
+        <v>1.828826174456224</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.498316447117092</v>
@@ -24336,7 +24228,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.881082536822231</v>
+        <v>1.826584892439975</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.8760878738057</v>
@@ -24425,7 +24317,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.87784349152627</v>
+        <v>1.827133453185411</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.723472717487046</v>
@@ -24514,7 +24406,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.867711414097369</v>
+        <v>1.81825192014611</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.825603684149831</v>
@@ -24603,7 +24495,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.858270929186619</v>
+        <v>1.811417704247999</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.672385711289341</v>
@@ -24692,7 +24584,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.857321064208197</v>
+        <v>1.812274910133484</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.270578357407066</v>
@@ -24781,7 +24673,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.859121430059417</v>
+        <v>1.814729091638572</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.177687828830519</v>
@@ -24870,7 +24762,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.851536622995459</v>
+        <v>1.808849959732069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.158848780244544</v>
@@ -24959,7 +24851,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.84289381923815</v>
+        <v>1.805072238004344</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.877188169054983</v>
@@ -25048,7 +24940,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.838117413076469</v>
+        <v>1.798867279759815</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.509767937979368</v>
@@ -25137,7 +25029,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.832660661077753</v>
+        <v>1.78911845863538</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.328184482731135</v>
@@ -25226,7 +25118,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.822914733898042</v>
+        <v>1.781287343406147</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.769131145559189</v>
@@ -25315,7 +25207,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.826555979681078</v>
+        <v>1.781760170070583</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.77723431369296</v>
@@ -25404,7 +25296,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.829336759547014</v>
+        <v>1.781466369505369</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.503799797780028</v>
@@ -25493,7 +25385,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.820633881913214</v>
+        <v>1.776190544740916</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.195595917832363</v>
@@ -25582,7 +25474,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.810225062758109</v>
+        <v>1.765106226931166</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.38229498718116</v>
@@ -25671,7 +25563,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.799656626094389</v>
+        <v>1.753958716432824</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.129580414584844</v>
@@ -25760,7 +25652,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.797494003811821</v>
+        <v>1.74910683935567</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.71173836394218</v>
@@ -25849,7 +25741,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.807924274581279</v>
+        <v>1.75433028158602</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.331198642276812</v>
@@ -25938,7 +25830,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.806867843561354</v>
+        <v>1.744386524799269</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.960881825316064</v>
@@ -26027,7 +25919,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.805081495347558</v>
+        <v>1.73395702686472</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.439595270817336</v>
@@ -26116,7 +26008,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.800905741876918</v>
+        <v>1.731631102222017</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.544098708057512</v>
@@ -26205,7 +26097,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.811755164111209</v>
+        <v>1.743960846771204</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.699024232098991</v>
@@ -26294,7 +26186,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.817796630028168</v>
+        <v>1.749832669533887</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.525668079310958</v>
@@ -26383,7 +26275,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.814119172672742</v>
+        <v>1.741660538054274</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.529969847707338</v>
@@ -26472,7 +26364,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.826152827810646</v>
+        <v>1.750068413561656</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.622258353347029</v>
@@ -26561,7 +26453,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.821145461258496</v>
+        <v>1.746497068280459</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.605579320821249</v>
@@ -26650,7 +26542,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.822715221770709</v>
+        <v>1.753257753473605</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.122605783711821</v>
@@ -26739,7 +26631,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.824201535146755</v>
+        <v>1.756381279810564</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.132014126010562</v>
@@ -26828,7 +26720,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.833188486015509</v>
+        <v>1.76853673748224</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.953807588618747</v>
@@ -26917,7 +26809,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.842576617150015</v>
+        <v>1.776259167032794</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.180796034118151</v>
@@ -27006,7 +26898,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.851933405046565</v>
+        <v>1.790289387032595</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.122808966201326</v>
@@ -27095,7 +26987,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.856704120342773</v>
+        <v>1.801144555546774</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.416450708837501</v>
@@ -27381,7 +27273,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.693287585729271</v>
+        <v>1.656133763008405</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.960349653025232</v>
@@ -27470,7 +27362,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.680890109219935</v>
+        <v>1.648702012086761</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.664687853113255</v>
@@ -27559,7 +27451,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695511778925838</v>
+        <v>1.655591590301977</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.057102817939516</v>
@@ -27648,7 +27540,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.698922105900757</v>
+        <v>1.657751064855672</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.869510955984158</v>
@@ -27737,7 +27629,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.69134855530951</v>
+        <v>1.646557160625479</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.214944846636626</v>
@@ -27826,7 +27718,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.701116193977754</v>
+        <v>1.652881163906479</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.036384212164966</v>
@@ -27915,7 +27807,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.701510537393977</v>
+        <v>1.660469349772209</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.861142334678466</v>
@@ -28004,7 +27896,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.705829511065177</v>
+        <v>1.669941518271356</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.095239392736335</v>
@@ -28093,7 +27985,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.704915890268753</v>
+        <v>1.667274785858516</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.016630931853424</v>
@@ -28182,7 +28074,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.68915532223103</v>
+        <v>1.653395564068164</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.980201699582999</v>
@@ -28271,7 +28163,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.705340585146051</v>
+        <v>1.668949019604582</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.6732139686347</v>
@@ -28360,7 +28252,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.700615465817803</v>
+        <v>1.662590836719998</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.639982487400133</v>
@@ -28449,7 +28341,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.708831179458075</v>
+        <v>1.670182370873944</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.639849058970931</v>
@@ -28538,7 +28430,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.697417335072181</v>
+        <v>1.663613330395391</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.260753520132443</v>
@@ -28627,7 +28519,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.689638661078407</v>
+        <v>1.671739201251021</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.949951361147201</v>
@@ -28716,7 +28608,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.692644388681632</v>
+        <v>1.670685789708109</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.349961515673967</v>
@@ -28805,7 +28697,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.700753749426554</v>
+        <v>1.671792752445241</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.140701614188233</v>
@@ -28894,7 +28786,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.705612128086178</v>
+        <v>1.673137827187319</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.408842390279331</v>
@@ -28983,7 +28875,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.716927465576452</v>
+        <v>1.673899303479381</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.847038462116796</v>
@@ -29072,7 +28964,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.746072492763571</v>
+        <v>1.719651413915845</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.747389060427427</v>
@@ -29161,7 +29053,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.747414112590732</v>
+        <v>1.721157289548926</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.860586740410165</v>
@@ -29250,7 +29142,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.752709865695713</v>
+        <v>1.722052520443788</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.942749449022814</v>
@@ -29339,7 +29231,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.747222186312209</v>
+        <v>1.711653199174243</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.105386425275471</v>
@@ -29428,7 +29320,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.751501990432934</v>
+        <v>1.715413973582334</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.98960221099718</v>
@@ -29517,7 +29409,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.776848707197795</v>
+        <v>1.734662084085967</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.0364919051995</v>
@@ -29606,7 +29498,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.786085953305804</v>
+        <v>1.742597063789044</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.145974175874542</v>
@@ -29695,7 +29587,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.781527938560669</v>
+        <v>1.742859974700012</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.139634963157407</v>
@@ -29784,7 +29676,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.783511922990945</v>
+        <v>1.745489919838907</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.099202263540191</v>
@@ -29873,7 +29765,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.795566679413224</v>
+        <v>1.755414030258428</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.124979185360989</v>
@@ -29962,7 +29854,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.803401315262461</v>
+        <v>1.760550089846577</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.042999254965314</v>
@@ -30051,7 +29943,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.798386528788093</v>
+        <v>1.762567668642425</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.109436189648055</v>
@@ -30140,7 +30032,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.800415694758731</v>
+        <v>1.76619138070385</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.07636494109444</v>
@@ -30229,7 +30121,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.804013524920776</v>
+        <v>1.772524346742626</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.115741011645556</v>
@@ -30318,7 +30210,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.825613525928738</v>
+        <v>1.795874785087556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.009685795887156</v>
@@ -30407,7 +30299,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.798477388914415</v>
+        <v>1.769148518839829</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.027923542616896</v>
@@ -30496,7 +30388,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.795459266770535</v>
+        <v>1.759281042170461</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.036829729794798</v>
@@ -30585,7 +30477,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.794969186101029</v>
+        <v>1.760886728030245</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.965043305712375</v>
@@ -30674,7 +30566,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.8006086199036</v>
+        <v>1.763421618456108</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.973116057419566</v>
@@ -30763,7 +30655,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.792006180498042</v>
+        <v>1.757243466485072</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.050716155839174</v>
@@ -30852,7 +30744,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.786234745944423</v>
+        <v>1.751384636187467</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.851826458626148</v>
@@ -30941,7 +30833,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.783830461763981</v>
+        <v>1.74495231907667</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.699378107885963</v>
@@ -31030,7 +30922,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.780456181991133</v>
+        <v>1.740679177785139</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.978161411378346</v>
@@ -31119,7 +31011,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.758235462533605</v>
+        <v>1.721419092654171</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.802971159931868</v>
@@ -31208,7 +31100,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.757830532085259</v>
+        <v>1.717411799046276</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.914489540688019</v>
@@ -31297,7 +31189,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.755288797754643</v>
+        <v>1.707844486358846</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.734367037762602</v>
@@ -31386,7 +31278,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.760217269560683</v>
+        <v>1.707177543049884</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.643827617361554</v>
@@ -31475,7 +31367,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.763716373681079</v>
+        <v>1.705186541728783</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.850072152099688</v>
@@ -31564,7 +31456,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.768124307160602</v>
+        <v>1.70615560929535</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.024432659682962</v>
@@ -31653,7 +31545,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.736690325477537</v>
+        <v>1.663879769803173</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.890882816565527</v>
@@ -31742,7 +31634,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.73699577258694</v>
+        <v>1.655583848819329</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.733305148104019</v>
@@ -31831,7 +31723,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.737360773702926</v>
+        <v>1.66168618887395</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.687122443319092</v>
@@ -31920,7 +31812,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.730634119517015</v>
+        <v>1.654838689837678</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.584663675878864</v>
@@ -32009,7 +31901,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.724897046134046</v>
+        <v>1.651534742648946</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.56830700950426</v>
@@ -32098,7 +31990,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.734753780439039</v>
+        <v>1.652802657283083</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.04330438446747</v>
@@ -32187,7 +32079,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.728098295926469</v>
+        <v>1.651028802921367</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.53907950716797</v>
@@ -32276,7 +32168,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.719679796452285</v>
+        <v>1.64577765094735</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.317155048994222</v>
@@ -32365,7 +32257,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.724883906337216</v>
+        <v>1.653075993164746</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.482779520518659</v>
@@ -32454,7 +32346,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.742010128701425</v>
+        <v>1.667048309347669</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.344983975081163</v>
@@ -32543,7 +32435,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.740123950438872</v>
+        <v>1.673015144068791</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.731141914664321</v>
@@ -32632,7 +32524,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.741067899298204</v>
+        <v>1.680117697826989</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.671280025436624</v>
@@ -32721,7 +32613,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.725567212936669</v>
+        <v>1.672829874887642</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.603059661595339</v>
@@ -33007,7 +32899,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.756917712309973</v>
+        <v>1.774437315192382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.672063414212221</v>
@@ -33096,7 +32988,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.769410030429959</v>
+        <v>1.790188683801683</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.785046903243184</v>
@@ -33185,7 +33077,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.794645127846215</v>
+        <v>1.81045985261862</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.676302910279713</v>
@@ -33274,7 +33166,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.843889722763541</v>
+        <v>1.850945734660103</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.963320553660831</v>
@@ -33363,7 +33255,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.857644770133904</v>
+        <v>1.85708971804328</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.069285335117164</v>
@@ -33452,7 +33344,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.869263919300156</v>
+        <v>1.863898915316217</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.887703153082897</v>
@@ -33541,7 +33433,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.881125013347149</v>
+        <v>1.872477944235936</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.976577900362281</v>
@@ -33630,7 +33522,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.883921763978638</v>
+        <v>1.87717770108649</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.929152830294595</v>
@@ -33719,7 +33611,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.883920389216598</v>
+        <v>1.878343886788162</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.108295598802288</v>
@@ -33808,7 +33700,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.855748394600866</v>
+        <v>1.856404656405155</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.054642617000876</v>
@@ -33897,7 +33789,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.862406127646911</v>
+        <v>1.858555891080337</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.797506714458747</v>
@@ -33986,7 +33878,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.857717494797854</v>
+        <v>1.851815311264334</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.709073486499617</v>
@@ -34075,7 +33967,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.851474496090755</v>
+        <v>1.848398035435099</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.815651568437376</v>
@@ -34164,7 +34056,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.824418911702316</v>
+        <v>1.814784419516846</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.996640251565197</v>
@@ -34253,7 +34145,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.79242056145204</v>
+        <v>1.789118223795485</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.751813705580204</v>
@@ -34342,7 +34234,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.781937172391663</v>
+        <v>1.774832363126785</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.773136700692551</v>
@@ -34431,7 +34323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.772459074409153</v>
+        <v>1.756237658220675</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.539966658457707</v>
@@ -34520,7 +34412,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.818216364775714</v>
+        <v>1.796000876838645</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.530968229427004</v>
@@ -34609,7 +34501,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.777350479229722</v>
+        <v>1.762600752053264</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.556801445465282</v>
@@ -34698,7 +34590,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.761147138854962</v>
+        <v>1.761565288030333</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.639261506111287</v>
@@ -34787,7 +34679,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.761922548722094</v>
+        <v>1.762115935271593</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.552999688750568</v>
@@ -34876,7 +34768,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.762845034890889</v>
+        <v>1.766541224034354</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.619835142031905</v>
@@ -34965,7 +34857,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.761952051245222</v>
+        <v>1.761639688703807</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.571521163931129</v>
@@ -35054,7 +34946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.770891706325166</v>
+        <v>1.775293326930703</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.526740739928202</v>
@@ -35143,7 +35035,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.801428197329294</v>
+        <v>1.795158627945514</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.531949800790293</v>
@@ -35232,7 +35124,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.805121341193381</v>
+        <v>1.794657785731648</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.576296976896569</v>
@@ -35321,7 +35213,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.80730383825133</v>
+        <v>1.802222841507322</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.597038701650455</v>
@@ -35410,7 +35302,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.806884141174472</v>
+        <v>1.800607053748024</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.672894469259794</v>
@@ -35499,7 +35391,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.801943206622866</v>
+        <v>1.801609287891837</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.59634151396038</v>
@@ -35588,7 +35480,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.788141529419474</v>
+        <v>1.782071876763306</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.649536469677186</v>
@@ -35677,7 +35569,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.761709557646345</v>
+        <v>1.767133029340386</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.672009361486063</v>
@@ -35766,7 +35658,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.766754204727983</v>
+        <v>1.774945210480666</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.810775922827276</v>
@@ -35855,7 +35747,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.755438044848023</v>
+        <v>1.763715289637276</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.682972175684764</v>
@@ -35944,7 +35836,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.763844851602602</v>
+        <v>1.76512314951503</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.459689885787248</v>
@@ -36033,7 +35925,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.751286040737255</v>
+        <v>1.753187238722876</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.70007291965655</v>
@@ -36122,7 +36014,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.743680440487245</v>
+        <v>1.744148222688257</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.674084192819885</v>
@@ -36211,7 +36103,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.735866488454825</v>
+        <v>1.732870157500818</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.648096406128905</v>
@@ -36300,7 +36192,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.727069581620051</v>
+        <v>1.723662555794505</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.666695042887807</v>
@@ -36389,7 +36281,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.719980976194619</v>
+        <v>1.713210098104595</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.604265056480592</v>
@@ -36478,7 +36370,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.715168172134378</v>
+        <v>1.711619494770438</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.599057548872209</v>
@@ -36567,7 +36459,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705883390334983</v>
+        <v>1.71037282292019</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.575494090024319</v>
@@ -36656,7 +36548,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699301147960177</v>
+        <v>1.698709313313169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.520005151247292</v>
@@ -36745,7 +36637,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65582980467534</v>
+        <v>1.656084320412139</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.349298495736762</v>
@@ -36834,7 +36726,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.683927312514388</v>
+        <v>1.677919812252391</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.354329569305562</v>
@@ -36923,7 +36815,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.719171551002168</v>
+        <v>1.705378451388769</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.334399445340032</v>
@@ -37012,7 +36904,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.729525327768706</v>
+        <v>1.712554078685884</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.550496346056769</v>
@@ -37101,7 +36993,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.727928244079651</v>
+        <v>1.715590940157326</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.517053634468948</v>
@@ -37190,7 +37082,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.738255862195413</v>
+        <v>1.722080156845571</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.453361171609632</v>
@@ -37279,7 +37171,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.791549081166004</v>
+        <v>1.761104698819169</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.456983404042207</v>
@@ -37368,7 +37260,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.806797171297537</v>
+        <v>1.780206362434906</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.637213585378107</v>
@@ -37457,7 +37349,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.792652417270492</v>
+        <v>1.77031599686004</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.572292999266042</v>
@@ -37546,7 +37438,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.76622405863482</v>
+        <v>1.761010406497822</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.574883206422781</v>
@@ -37635,7 +37527,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.765148915497679</v>
+        <v>1.763722645999031</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.570841487615589</v>
@@ -37724,7 +37616,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.76933432499041</v>
+        <v>1.767224004270751</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.546602128368238</v>
@@ -37813,7 +37705,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.764580439447407</v>
+        <v>1.763587328991301</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.578191368149381</v>
@@ -37902,7 +37794,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.771045677824459</v>
+        <v>1.770271873613289</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.636485789734844</v>
@@ -37991,7 +37883,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.772459633390934</v>
+        <v>1.777943253932384</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.603913964721894</v>
@@ -38080,7 +37972,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.837087417318245</v>
+        <v>1.83640462320953</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.975712455721043</v>
@@ -38169,7 +38061,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.850938047485158</v>
+        <v>1.855089979315589</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.69158803963533</v>
@@ -38258,7 +38150,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.859757552998033</v>
+        <v>1.874010189161162</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.768256805950453</v>
@@ -38347,7 +38239,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.858081220935168</v>
+        <v>1.879170690081111</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.8344964419375</v>
